--- a/scoresheets_clean/CET.xlsx
+++ b/scoresheets_clean/CET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/kschaumberg/MAXED/MAXED-data-cleaning/scoresheets_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF73FFA7-1E7E-DB45-B995-8C3356621B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44DAE88-A2A4-9A4B-BFAD-6E48AB4657E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="10940" windowWidth="32900" windowHeight="16940" xr2:uid="{052DBF7D-C3FA-894B-8EC0-47AB8FB993B6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16880" xr2:uid="{052DBF7D-C3FA-894B-8EC0-47AB8FB993B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,9 +598,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -638,7 +638,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -744,7 +744,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -886,7 +886,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -894,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D3FB80-C1B2-8B4F-8403-10CCEFE66735}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3149,8 +3149,8 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(",", TRUE, B55:B63)</f>
-        <v>cet_avoid_raw,cet_wtcontrol_raw,cet_mood_raw,cet_enjoy_raw,cet_rigid_raw,cet_avoid_subscale,cet_wtcontrol_subscale,cet_mood_subscale,cet_enjoy_subscale</v>
+        <f>_xlfn.TEXTJOIN(",", TRUE, B60:B64)</f>
+        <v>cet_avoid_subscale,cet_wtcontrol_subscale,cet_mood_subscale,cet_enjoy_subscale,cet_rigid_subscale</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>104</v>
@@ -3217,6 +3217,19 @@
       <c r="K66" s="6" t="s">
         <v>111</v>
       </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K66">
